--- a/teste.xlsx
+++ b/teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\projeto2_CD2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61C3F9-D4E0-4FF7-A907-6C77C42A8BEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E242996-3178-44A6-8370-7E6884F6EB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="401">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1261,9 +1261,6 @@
   </si>
   <si>
     <t>1 - RUIM</t>
-  </si>
-  <si>
-    <t>2 - BOM</t>
   </si>
   <si>
     <t>a riot me jogou no plat 5 na flex, mas pra compensar eu pulei do p5 pro p3 e do p3 pro p1 :d</t>
@@ -1343,6 +1340,12 @@
   </si>
   <si>
     <t>rt @brunozor: quem tiver com meu boneco de voodo leva ele pra um bar muita pinga e marilia mendonça pra esquece esse amor bandido</t>
+  </si>
+  <si>
+    <t>2 - NEUTRO</t>
+  </si>
+  <si>
+    <t>3 - BOM</t>
   </si>
 </sst>
 </file>
@@ -1788,18 +1791,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A674" zoomScale="91" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B700" sqref="B700"/>
+    <sheetView tabSelected="1" topLeftCell="A670" zoomScale="91" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B701" sqref="B701"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="168.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="168.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1821,18 +1824,18 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1840,34 +1843,37 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1883,15 +1889,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1899,23 +1905,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1923,15 +1929,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1939,15 +1945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1963,39 +1969,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2003,55 +2009,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2067,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2075,31 +2081,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2115,39 +2121,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2171,47 +2177,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
       <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
       <c r="B49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
       <c r="B50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2227,15 +2233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>43</v>
       </c>
       <c r="B53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2243,47 +2249,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>45</v>
       </c>
       <c r="B55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>46</v>
       </c>
       <c r="B58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>47</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2291,47 +2297,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
       <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>50</v>
       </c>
       <c r="B62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>51</v>
       </c>
       <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>52</v>
       </c>
       <c r="B65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -2347,23 +2353,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>55</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -2379,111 +2385,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>59</v>
       </c>
       <c r="B73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>60</v>
       </c>
       <c r="B74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>61</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>62</v>
       </c>
       <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>20</v>
       </c>
       <c r="B78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>63</v>
       </c>
       <c r="B79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>64</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>65</v>
       </c>
       <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>32</v>
       </c>
       <c r="B83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2499,15 +2505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>69</v>
       </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>70</v>
       </c>
@@ -2515,15 +2521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -2531,31 +2537,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>72</v>
       </c>
       <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>73</v>
       </c>
       <c r="B92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>74</v>
       </c>
       <c r="B93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>75</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -2571,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2579,31 +2585,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>78</v>
       </c>
       <c r="B97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>79</v>
       </c>
       <c r="B98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>80</v>
       </c>
       <c r="B99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -2611,15 +2617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>81</v>
       </c>
       <c r="B101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>82</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2635,31 +2641,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>84</v>
       </c>
       <c r="B104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>85</v>
       </c>
       <c r="B105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>86</v>
       </c>
       <c r="B106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -2667,39 +2673,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>88</v>
       </c>
       <c r="B108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>89</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>90</v>
       </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>91</v>
       </c>
       <c r="B111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>92</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>93</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>94</v>
       </c>
@@ -2723,31 +2729,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="B115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>95</v>
       </c>
       <c r="B116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>96</v>
       </c>
       <c r="B117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>98</v>
       </c>
@@ -2771,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -2779,15 +2785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>100</v>
       </c>
       <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>101</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>102</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>91</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -2819,31 +2825,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>104</v>
       </c>
       <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>105</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>106</v>
       </c>
@@ -2851,15 +2857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>107</v>
       </c>
       <c r="B131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>109</v>
       </c>
@@ -2875,23 +2881,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>110</v>
       </c>
       <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -2899,15 +2905,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>111</v>
       </c>
       <c r="B137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -2923,23 +2929,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>2</v>
       </c>
       <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>113</v>
       </c>
       <c r="B141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -2955,15 +2961,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>116</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>117</v>
       </c>
@@ -2971,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>118</v>
       </c>
@@ -2979,15 +2985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>119</v>
       </c>
       <c r="B147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>120</v>
       </c>
@@ -2995,15 +3001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>121</v>
       </c>
       <c r="B149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -3019,15 +3025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>124</v>
       </c>
       <c r="B152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>125</v>
       </c>
@@ -3035,39 +3041,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>126</v>
       </c>
       <c r="B154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>127</v>
       </c>
       <c r="B155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>128</v>
       </c>
       <c r="B156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>129</v>
       </c>
       <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>130</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>131</v>
       </c>
@@ -3083,23 +3089,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>132</v>
       </c>
       <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>133</v>
       </c>
       <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>134</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>135</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>136</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>137</v>
       </c>
@@ -3131,15 +3137,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>138</v>
       </c>
       <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>139</v>
       </c>
@@ -3147,15 +3153,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>20</v>
       </c>
       <c r="B168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -3163,15 +3169,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>140</v>
       </c>
       <c r="B170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -3179,47 +3185,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>2</v>
       </c>
       <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>2</v>
       </c>
       <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>142</v>
       </c>
       <c r="B174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>143</v>
       </c>
       <c r="B175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>144</v>
       </c>
       <c r="B176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -3227,55 +3233,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>2</v>
       </c>
       <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>145</v>
       </c>
       <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>146</v>
       </c>
       <c r="B180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>2</v>
       </c>
       <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>148</v>
       </c>
       <c r="B183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>149</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -3299,31 +3305,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>151</v>
       </c>
       <c r="B187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>152</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>153</v>
       </c>
       <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -3331,23 +3337,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>155</v>
       </c>
       <c r="B191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>74</v>
       </c>
       <c r="B192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>156</v>
       </c>
@@ -3355,15 +3361,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>2</v>
       </c>
       <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -3379,71 +3385,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>140</v>
       </c>
       <c r="B197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>157</v>
       </c>
       <c r="B198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>158</v>
       </c>
       <c r="B199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>2</v>
       </c>
       <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>159</v>
       </c>
       <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>160</v>
       </c>
       <c r="B202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>161</v>
       </c>
       <c r="B203">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>162</v>
       </c>
       <c r="B204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>163</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>164</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -3483,23 +3489,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>12</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>140</v>
       </c>
       <c r="B211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>166</v>
       </c>
@@ -3507,23 +3510,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>2</v>
       </c>
       <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>167</v>
       </c>
       <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>168</v>
       </c>
@@ -3531,15 +3534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>169</v>
       </c>
       <c r="B216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>170</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>171</v>
       </c>
@@ -3555,15 +3558,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>11</v>
       </c>
       <c r="B219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>172</v>
       </c>
@@ -3571,23 +3574,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>173</v>
       </c>
       <c r="B221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>174</v>
       </c>
       <c r="B222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>175</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>176</v>
       </c>
@@ -3603,23 +3606,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>177</v>
       </c>
       <c r="B225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>178</v>
       </c>
       <c r="B226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>179</v>
       </c>
@@ -3635,23 +3638,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>180</v>
       </c>
       <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>181</v>
       </c>
       <c r="B230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>182</v>
       </c>
@@ -3659,31 +3662,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>183</v>
       </c>
       <c r="B232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>184</v>
       </c>
       <c r="B233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>2</v>
       </c>
       <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>185</v>
       </c>
@@ -3691,15 +3694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>186</v>
       </c>
       <c r="B236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>187</v>
       </c>
@@ -3707,15 +3710,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>188</v>
       </c>
       <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>189</v>
       </c>
@@ -3723,39 +3726,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>190</v>
       </c>
       <c r="B240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>191</v>
       </c>
       <c r="B241">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>192</v>
       </c>
       <c r="B242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>193</v>
       </c>
       <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>194</v>
       </c>
@@ -3763,47 +3766,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>2</v>
       </c>
       <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>195</v>
       </c>
       <c r="B246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>196</v>
       </c>
       <c r="B247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>197</v>
       </c>
       <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>198</v>
       </c>
       <c r="B249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>199</v>
       </c>
@@ -3811,55 +3814,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>2</v>
       </c>
       <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>200</v>
       </c>
       <c r="B252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>201</v>
       </c>
       <c r="B253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>2</v>
       </c>
       <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>203</v>
       </c>
       <c r="B256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>204</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>205</v>
       </c>
@@ -3875,23 +3878,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>206</v>
       </c>
       <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>207</v>
       </c>
       <c r="B260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -3899,23 +3902,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>2</v>
       </c>
       <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>208</v>
       </c>
       <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>209</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>210</v>
       </c>
@@ -3931,47 +3934,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>211</v>
       </c>
       <c r="B266">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>212</v>
       </c>
       <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>213</v>
       </c>
       <c r="B268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>214</v>
       </c>
       <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>197</v>
       </c>
       <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>215</v>
       </c>
@@ -3979,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>216</v>
       </c>
@@ -3987,15 +3990,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>217</v>
       </c>
       <c r="B273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>218</v>
       </c>
@@ -4003,55 +4006,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>219</v>
       </c>
       <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>220</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>221</v>
       </c>
       <c r="B277">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>222</v>
       </c>
       <c r="B278">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>223</v>
       </c>
       <c r="B279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>224</v>
       </c>
       <c r="B280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>225</v>
       </c>
@@ -4059,39 +4062,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>226</v>
       </c>
       <c r="B282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>227</v>
       </c>
       <c r="B283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>2</v>
       </c>
       <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>2</v>
       </c>
       <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>228</v>
       </c>
@@ -4099,15 +4102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>229</v>
       </c>
       <c r="B287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>230</v>
       </c>
@@ -4115,63 +4118,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>12</v>
       </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>231</v>
       </c>
       <c r="B290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>232</v>
       </c>
       <c r="B291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>162</v>
       </c>
       <c r="B292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>2</v>
       </c>
       <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>233</v>
       </c>
       <c r="B294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>2</v>
       </c>
       <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -4179,23 +4179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>162</v>
       </c>
       <c r="B297">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>234</v>
       </c>
       <c r="B298">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -4203,55 +4203,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>162</v>
       </c>
       <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>20</v>
       </c>
       <c r="B301">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>178</v>
       </c>
       <c r="B302">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>2</v>
       </c>
       <c r="B303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>20</v>
       </c>
       <c r="B304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>230</v>
       </c>
       <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>135</v>
       </c>
@@ -4259,79 +4259,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>232</v>
       </c>
       <c r="B307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>2</v>
       </c>
       <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>167</v>
       </c>
       <c r="B309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>279</v>
       </c>
       <c r="B311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>20</v>
       </c>
       <c r="B312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>47</v>
       </c>
       <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>2</v>
       </c>
       <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>328</v>
       </c>
@@ -4339,15 +4339,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>272</v>
       </c>
       <c r="B317">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>130</v>
       </c>
@@ -4355,47 +4355,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>142</v>
       </c>
       <c r="B319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>315</v>
       </c>
       <c r="B320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>80</v>
       </c>
       <c r="B321">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>18</v>
       </c>
       <c r="B322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>11</v>
       </c>
       <c r="B323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>278</v>
       </c>
@@ -4403,55 +4403,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>100</v>
       </c>
       <c r="B325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>223</v>
       </c>
       <c r="B326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>11</v>
       </c>
       <c r="B327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>2</v>
       </c>
       <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>145</v>
       </c>
@@ -4467,47 +4467,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>368</v>
       </c>
       <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>197</v>
       </c>
       <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>78</v>
       </c>
       <c r="B335">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>2</v>
       </c>
       <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>86</v>
       </c>
       <c r="B337">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>150</v>
       </c>
@@ -4515,31 +4515,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>2</v>
       </c>
       <c r="B340">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>55</v>
       </c>
       <c r="B341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -4547,15 +4547,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>43</v>
       </c>
       <c r="B343">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>28</v>
       </c>
@@ -4563,55 +4563,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>161</v>
       </c>
       <c r="B345">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>22</v>
       </c>
       <c r="B346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>357</v>
       </c>
       <c r="B347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>66</v>
       </c>
       <c r="B348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>74</v>
       </c>
       <c r="B349">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>303</v>
       </c>
       <c r="B350">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -4619,15 +4619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>74</v>
       </c>
       <c r="B352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>254</v>
       </c>
@@ -4635,15 +4635,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>350</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>317</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -4667,55 +4667,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>268</v>
       </c>
       <c r="B358">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>119</v>
       </c>
       <c r="B359">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>72</v>
       </c>
       <c r="B360">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B361">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>2</v>
       </c>
       <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>2</v>
       </c>
       <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>123</v>
       </c>
@@ -4723,31 +4723,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>146</v>
       </c>
       <c r="B365">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>49</v>
       </c>
       <c r="B366">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>2</v>
       </c>
       <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>204</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>108</v>
       </c>
@@ -4763,15 +4763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>192</v>
       </c>
       <c r="B370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>97</v>
       </c>
@@ -4779,15 +4779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>162</v>
       </c>
       <c r="B372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>284</v>
       </c>
@@ -4795,23 +4795,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>26</v>
       </c>
       <c r="B374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>2</v>
       </c>
       <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1</v>
       </c>
@@ -4819,15 +4819,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>20</v>
       </c>
       <c r="B377">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -4835,15 +4835,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>282</v>
       </c>
       <c r="B379">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>137</v>
       </c>
@@ -4851,47 +4851,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>20</v>
       </c>
       <c r="B381">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>25</v>
       </c>
       <c r="B382">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>244</v>
       </c>
       <c r="B383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>29</v>
       </c>
       <c r="B384">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>3</v>
       </c>
@@ -4907,15 +4907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>81</v>
       </c>
       <c r="B388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -4923,23 +4923,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>265</v>
       </c>
       <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>269</v>
       </c>
       <c r="B391">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>131</v>
       </c>
@@ -4955,15 +4955,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B394">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>117</v>
       </c>
@@ -4971,15 +4971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>295</v>
       </c>
       <c r="B396">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>39</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>93</v>
       </c>
@@ -4995,47 +4995,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>105</v>
       </c>
       <c r="B399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>292</v>
       </c>
       <c r="B400">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>360</v>
       </c>
       <c r="B402">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>208</v>
       </c>
       <c r="B403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>65</v>
       </c>
@@ -5043,15 +5043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>354</v>
       </c>
       <c r="B405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>12</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>36</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>274</v>
       </c>
@@ -5075,47 +5075,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>128</v>
       </c>
       <c r="B409">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>116</v>
       </c>
       <c r="B410">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>144</v>
       </c>
       <c r="B411">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>2</v>
       </c>
       <c r="B412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>169</v>
       </c>
       <c r="B413">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>164</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>329</v>
       </c>
@@ -5131,47 +5131,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>227</v>
       </c>
       <c r="B416">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B417">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>20</v>
       </c>
       <c r="B418">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>162</v>
       </c>
       <c r="B419">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>140</v>
       </c>
       <c r="B420">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>115</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>294</v>
       </c>
@@ -5187,23 +5187,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>94</v>
       </c>
       <c r="B423">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>2</v>
       </c>
       <c r="B424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>154</v>
       </c>
@@ -5211,23 +5211,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>314</v>
       </c>
       <c r="B426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>2</v>
       </c>
       <c r="B427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>17</v>
       </c>
@@ -5235,15 +5235,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>2</v>
       </c>
       <c r="B429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>179</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>67</v>
       </c>
@@ -5259,47 +5259,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
+        <v>387</v>
+      </c>
+      <c r="B432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>388</v>
       </c>
-      <c r="B432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>2</v>
+      </c>
+      <c r="B434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>2</v>
+      </c>
+      <c r="B435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>389</v>
       </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>2</v>
-      </c>
-      <c r="B434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>2</v>
-      </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>390</v>
-      </c>
       <c r="B436">
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>358</v>
       </c>
@@ -5307,15 +5307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>190</v>
       </c>
       <c r="B438">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>260</v>
       </c>
@@ -5323,15 +5323,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>186</v>
       </c>
       <c r="B440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>206</v>
       </c>
@@ -5339,92 +5339,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>2</v>
       </c>
       <c r="B442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>157</v>
       </c>
       <c r="B444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>27</v>
       </c>
       <c r="B445">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>198</v>
       </c>
       <c r="B446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>21</v>
       </c>
       <c r="B447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B448">
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>146</v>
       </c>
       <c r="B449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>2</v>
       </c>
       <c r="B450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>331</v>
       </c>
       <c r="B451">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>2</v>
       </c>
       <c r="B452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>134</v>
       </c>
@@ -5432,15 +5435,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>2</v>
       </c>
       <c r="B454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>209</v>
       </c>
@@ -5448,39 +5451,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>304</v>
       </c>
       <c r="B456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>221</v>
       </c>
       <c r="B457">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>111</v>
       </c>
       <c r="B458">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>271</v>
       </c>
       <c r="B459">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>166</v>
       </c>
@@ -5488,119 +5491,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>56</v>
       </c>
       <c r="B461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>177</v>
       </c>
       <c r="B462">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>2</v>
       </c>
       <c r="B463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>233</v>
       </c>
       <c r="B464">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>52</v>
       </c>
       <c r="B465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>162</v>
       </c>
       <c r="B466">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>2</v>
       </c>
       <c r="B467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>248</v>
       </c>
       <c r="B468">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>311</v>
       </c>
       <c r="B469">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>270</v>
       </c>
       <c r="B470">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>197</v>
       </c>
       <c r="B471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>2</v>
       </c>
       <c r="B472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>286</v>
       </c>
       <c r="B473">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>273</v>
       </c>
       <c r="B474">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>106</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>285</v>
       </c>
@@ -5616,71 +5619,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>174</v>
       </c>
       <c r="B477">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>316</v>
       </c>
       <c r="B478">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>343</v>
       </c>
       <c r="B479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>242</v>
       </c>
       <c r="B480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>171</v>
       </c>
       <c r="B481">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>217</v>
       </c>
       <c r="B482">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>213</v>
       </c>
       <c r="B483">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B484">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>184</v>
       </c>
@@ -5688,15 +5691,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>359</v>
       </c>
       <c r="B486">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>35</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>74</v>
       </c>
@@ -5712,63 +5715,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>2</v>
       </c>
       <c r="B489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>10</v>
       </c>
       <c r="B490">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>191</v>
       </c>
       <c r="B491">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>305</v>
       </c>
       <c r="B492">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>211</v>
       </c>
       <c r="B493">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>147</v>
       </c>
       <c r="B494">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B495">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>24</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>327</v>
       </c>
@@ -5784,39 +5787,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>2</v>
       </c>
       <c r="B498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>151</v>
       </c>
       <c r="B499">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>203</v>
       </c>
       <c r="B500">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>247</v>
       </c>
       <c r="B501">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>225</v>
       </c>
@@ -5824,15 +5827,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>196</v>
       </c>
       <c r="B503">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>149</v>
       </c>
@@ -5840,15 +5843,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>313</v>
       </c>
       <c r="B505">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>44</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -5864,23 +5867,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>159</v>
       </c>
       <c r="B508">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>302</v>
       </c>
       <c r="B509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>185</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>323</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>8</v>
       </c>
@@ -5904,39 +5907,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>264</v>
       </c>
       <c r="B513">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>59</v>
       </c>
       <c r="B514">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>121</v>
       </c>
       <c r="B515">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>341</v>
       </c>
       <c r="B516">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>41</v>
       </c>
@@ -5944,47 +5947,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>2</v>
       </c>
       <c r="B518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>193</v>
       </c>
       <c r="B519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>95</v>
       </c>
       <c r="B520">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>220</v>
       </c>
       <c r="B521">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>20</v>
       </c>
       <c r="B522">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>58</v>
       </c>
@@ -5992,15 +5995,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>2</v>
       </c>
       <c r="B524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>12</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>2</v>
       </c>
@@ -6016,31 +6019,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>69</v>
       </c>
       <c r="B527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>11</v>
       </c>
       <c r="B528">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>197</v>
       </c>
       <c r="B529">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>12</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>16</v>
       </c>
@@ -6056,23 +6059,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>64</v>
       </c>
       <c r="B532">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>63</v>
       </c>
       <c r="B533">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>238</v>
       </c>
@@ -6080,31 +6083,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>20</v>
       </c>
       <c r="B535">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B536">
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>290</v>
       </c>
       <c r="B537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>170</v>
       </c>
@@ -6112,15 +6115,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>224</v>
       </c>
       <c r="B539">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>12</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>82</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>168</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>118</v>
       </c>
@@ -6152,23 +6155,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>31</v>
       </c>
       <c r="B544">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>113</v>
       </c>
       <c r="B545">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>12</v>
       </c>
@@ -6176,47 +6179,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>143</v>
       </c>
       <c r="B547">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>183</v>
       </c>
       <c r="B548">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>104</v>
       </c>
       <c r="B549">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>2</v>
       </c>
       <c r="B550">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>136</v>
       </c>
       <c r="B551">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>12</v>
       </c>
@@ -6224,31 +6227,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>2</v>
       </c>
       <c r="B553">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>207</v>
       </c>
       <c r="B554">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>364</v>
       </c>
       <c r="B555">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>153</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>122</v>
       </c>
@@ -6264,15 +6267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>158</v>
       </c>
       <c r="B558">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>12</v>
       </c>
@@ -6280,31 +6283,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>2</v>
       </c>
       <c r="B560">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>236</v>
       </c>
       <c r="B561">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>205</v>
       </c>
       <c r="B562">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>293</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>139</v>
       </c>
@@ -6320,55 +6323,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B565">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>20</v>
       </c>
       <c r="B566">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>307</v>
       </c>
       <c r="B567">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B568">
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>288</v>
       </c>
       <c r="B569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>222</v>
       </c>
       <c r="B570">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>70</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>12</v>
       </c>
@@ -6384,31 +6387,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>226</v>
       </c>
       <c r="B573">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>84</v>
       </c>
       <c r="B574">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>2</v>
       </c>
       <c r="B575">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>245</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>48</v>
       </c>
@@ -6424,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>42</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>92</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>319</v>
       </c>
@@ -6448,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>12</v>
       </c>
@@ -6456,47 +6459,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>32</v>
       </c>
       <c r="B582">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>256</v>
       </c>
       <c r="B583">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>2</v>
       </c>
       <c r="B584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>84</v>
       </c>
       <c r="B585">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>133</v>
       </c>
       <c r="B586">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>12</v>
       </c>
@@ -6504,23 +6507,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>2</v>
       </c>
       <c r="B588">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>200</v>
       </c>
       <c r="B589">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>125</v>
       </c>
@@ -6528,55 +6531,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>369</v>
       </c>
       <c r="B591">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>11</v>
       </c>
       <c r="B592">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>2</v>
       </c>
       <c r="B593">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>20</v>
       </c>
       <c r="B594">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>162</v>
       </c>
       <c r="B595">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>231</v>
       </c>
       <c r="B596">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>156</v>
       </c>
@@ -6584,15 +6587,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B598">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>176</v>
       </c>
@@ -6600,31 +6603,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>289</v>
       </c>
       <c r="B600">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B601">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>2</v>
       </c>
       <c r="B602">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>164</v>
       </c>
@@ -6632,31 +6635,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>323</v>
       </c>
-      <c r="B604">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>2</v>
       </c>
       <c r="B605">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>345</v>
       </c>
       <c r="B606">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>12</v>
       </c>
@@ -6664,23 +6664,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>2</v>
       </c>
       <c r="B608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>273</v>
       </c>
       <c r="B609">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>12</v>
       </c>
@@ -6688,39 +6688,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>2</v>
       </c>
       <c r="B611">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>2</v>
       </c>
       <c r="B612">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>237</v>
       </c>
       <c r="B613">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>47</v>
       </c>
       <c r="B614">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>74</v>
       </c>
@@ -6728,23 +6728,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>359</v>
       </c>
       <c r="B616">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B617">
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>91</v>
       </c>
@@ -6752,15 +6752,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>51</v>
       </c>
       <c r="B619">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>30</v>
       </c>
@@ -6768,31 +6768,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>220</v>
       </c>
       <c r="B621">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>11</v>
       </c>
       <c r="B622">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>36</v>
       </c>
       <c r="B623">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>278</v>
       </c>
@@ -6800,31 +6800,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>197</v>
       </c>
       <c r="B625">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>152</v>
       </c>
       <c r="B626">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>226</v>
       </c>
       <c r="B627">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>9</v>
       </c>
@@ -6832,23 +6832,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B629">
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B630">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>9</v>
       </c>
@@ -6856,15 +6856,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>193</v>
       </c>
       <c r="B632">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>166</v>
       </c>
@@ -6872,39 +6872,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>2</v>
       </c>
       <c r="B634">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>335</v>
       </c>
       <c r="B635">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>2</v>
       </c>
       <c r="B636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>309</v>
       </c>
       <c r="B637">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>75</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>209</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>293</v>
       </c>
@@ -6928,15 +6928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>2</v>
       </c>
       <c r="B641">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>57</v>
       </c>
@@ -6944,79 +6944,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>281</v>
       </c>
       <c r="B643">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>146</v>
       </c>
       <c r="B644">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>26</v>
       </c>
       <c r="B645">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>27</v>
       </c>
       <c r="B646">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>46</v>
       </c>
       <c r="B647">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B648">
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>295</v>
       </c>
       <c r="B649">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>348</v>
       </c>
       <c r="B650">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>20</v>
       </c>
       <c r="B651">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>269</v>
       </c>
@@ -7024,47 +7024,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>292</v>
       </c>
       <c r="B653">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>260</v>
       </c>
       <c r="B654">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>2</v>
       </c>
       <c r="B655">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>315</v>
       </c>
       <c r="B656">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>146</v>
       </c>
       <c r="B657">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>263</v>
       </c>
@@ -7072,47 +7072,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>372</v>
       </c>
       <c r="B659">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>342</v>
       </c>
       <c r="B660">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>258</v>
       </c>
       <c r="B661">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>326</v>
       </c>
       <c r="B662">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>341</v>
       </c>
       <c r="B663">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>337</v>
       </c>
@@ -7120,15 +7120,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>18</v>
       </c>
       <c r="B665">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>187</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>12</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>44</v>
       </c>
@@ -7160,23 +7160,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>271</v>
       </c>
       <c r="B670">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B671">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>12</v>
       </c>
@@ -7184,31 +7184,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>133</v>
       </c>
       <c r="B673">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>113</v>
       </c>
       <c r="B674">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>319</v>
       </c>
       <c r="B675">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>12</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>236</v>
       </c>
@@ -7224,31 +7224,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>69</v>
       </c>
       <c r="B678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>143</v>
       </c>
       <c r="B679">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>142</v>
       </c>
       <c r="B680">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>70</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>277</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>318</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>189</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>185</v>
       </c>
@@ -7288,71 +7288,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B686">
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>116</v>
       </c>
       <c r="B687">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B688">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>2</v>
       </c>
       <c r="B689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>2</v>
       </c>
       <c r="B690">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>2</v>
       </c>
       <c r="B691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>230</v>
       </c>
       <c r="B692">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>191</v>
       </c>
       <c r="B693">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>139</v>
       </c>
@@ -7360,47 +7360,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>95</v>
       </c>
       <c r="B695">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>340</v>
       </c>
       <c r="B696">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>197</v>
       </c>
       <c r="B697">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>213</v>
       </c>
       <c r="B698">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>32</v>
       </c>
       <c r="B699">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>125</v>
       </c>
@@ -7421,1011 +7421,1011 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>9</v>
       </c>
